--- a/Doc/问题清单/融创设计协同办公平台事务表.xlsx
+++ b/Doc/问题清单/融创设计协同办公平台事务表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\问题清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035AD80A-C8E3-464B-A962-4BACC03991B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F458B6-F2D3-4ADA-960C-9DBCBC9863DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事务表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="170">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -691,6 +691,22 @@
   <si>
     <t xml:space="preserve">中挺：如果给建筑院用简单，如果建筑院怎么做？
 给二次深化设计则比较复杂，如果这样怎么做？ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿城都建筑设计院中提出门窗外立面的结构线、完成线，浙江工业设计院提出的抹灰层在外窗的显示是否要考虑和更改外窗原型图？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁学忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部账号区域人员是否能查看本区域的所有项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,27 +902,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,30 +938,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,13 +969,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1011,6 +1012,20 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1367,27 +1382,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.5"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10" style="48" customWidth="1"/>
-    <col min="3" max="3" width="70.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="49" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="49" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="8.88671875" style="26"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10" style="37" customWidth="1"/>
+    <col min="3" max="3" width="70.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.875" style="1"/>
+    <col min="12" max="12" width="8.875" style="20"/>
+    <col min="13" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1403,10 +1418,10 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -1415,551 +1430,551 @@
       <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1">
-      <c r="A2" s="42">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="18">
         <v>43671</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="18">
         <v>43676</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="32"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1">
-      <c r="A3" s="42">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="18">
         <v>43676</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="18">
         <v>43682</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="31.2">
-      <c r="A4" s="42">
+      <c r="I3" s="32"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="33">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="18">
         <v>43671</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="18">
         <v>43676</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="L4" s="26"/>
+      <c r="I4" s="32"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1">
-      <c r="A5" s="42">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="18">
         <v>43671</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="18">
         <v>43697</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="31.2">
-      <c r="A6" s="42">
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="33">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="18">
         <v>43676</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="18">
         <v>43682</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="31.2">
-      <c r="A7" s="42">
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="18">
         <v>43676</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="18">
         <v>43682</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="L7" s="26"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1">
-      <c r="A8" s="42">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="18">
         <v>43671</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="18">
         <v>43676</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="32"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1">
-      <c r="A9" s="42">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="18">
         <v>43671</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="18">
         <v>43676</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="32"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1">
-      <c r="A10" s="42">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="18">
         <v>43671</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="18">
         <v>43676</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="32"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1">
-      <c r="A11" s="42">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="18">
         <v>43676</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="18">
         <v>43678</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="32"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1">
-      <c r="A12" s="42">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <v>43683</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="18">
         <v>43686</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="32"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1">
-      <c r="A13" s="42">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="36">
         <v>43700</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="31.2">
-      <c r="A14" s="42">
+      <c r="I13" s="32"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="33">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="36">
         <v>43705</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="31"/>
+      <c r="G14" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="32"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1">
-      <c r="A15" s="42">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="36">
         <v>43700</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="18" t="s">
         <v>127</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="34"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1">
-      <c r="A16" s="42">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="18">
         <v>43671</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="18">
         <v>43697</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="L16" s="26"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1">
-      <c r="A17" s="42">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="18">
         <v>43671</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="18">
         <v>43697</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="L17" s="26"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1">
-      <c r="A18" s="42">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="18">
         <v>43683</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="18">
         <v>43686</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="32"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1">
-      <c r="A19" s="42">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="18">
         <v>43684</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="18">
         <v>43686</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="32"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1">
-      <c r="A20" s="42">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="36">
         <v>43700</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="24" t="s">
+      <c r="F20" s="31"/>
+      <c r="G20" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="32"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1">
-      <c r="A21" s="42">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="18">
         <v>43679</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="18">
         <v>43684</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -1968,26 +1983,26 @@
       <c r="H21" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="31.2">
-      <c r="A22" s="42">
+      <c r="I21" s="34"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" s="2" customFormat="1">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="18">
         <v>43679</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="18">
         <v>43708</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -1996,26 +2011,26 @@
       <c r="H22" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="45"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="1:12" ht="31.2">
-      <c r="A23" s="42">
+      <c r="I22" s="34"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" ht="33">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="18">
         <v>43683</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="18">
         <v>43697</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -2024,269 +2039,390 @@
       <c r="H23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="31.2">
-      <c r="A24" s="42">
+    <row r="24" spans="1:12" ht="33">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="18">
         <v>43684</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="18">
         <v>43686</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="18" t="s">
         <v>127</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="25" spans="1:12" ht="31.2">
-      <c r="A25" s="42">
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" ht="33">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="18">
         <v>43684</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="18">
         <v>43686</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="18" t="s">
         <v>127</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="45"/>
-    </row>
-    <row r="26" spans="1:12" ht="46.8">
-      <c r="A26" s="42">
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:12" ht="49.5">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="34" t="s">
         <v>155</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="36">
         <v>43700</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="11" t="s">
         <v>128</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="42">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="36">
         <v>43700</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="11" t="s">
         <v>128</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="45"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="42">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="36">
         <v>43700</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="11" t="s">
         <v>128</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="45"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="42">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="34" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="36">
         <v>43705</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="11" t="s">
         <v>128</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="45"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="42">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="36">
         <v>43705</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="24" t="s">
+      <c r="F30" s="31"/>
+      <c r="G30" s="18" t="s">
         <v>137</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="45"/>
+      <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="42">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="36">
         <v>43705</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="36">
         <v>43707</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="18" t="s">
         <v>127</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="45"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="42">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="36">
         <v>43705</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="24" t="s">
+      <c r="F32" s="31"/>
+      <c r="G32" s="18" t="s">
         <v>127</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="45"/>
+      <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="42">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="18">
         <v>43671</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="18">
         <v>43697</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="31"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="31"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="31"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="31"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="31"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="31"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="31"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="31"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="31"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="31"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="31"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H33" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -2298,14 +2434,24 @@
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="高">
+  <conditionalFormatting sqref="G1:G33 G45:G1048576">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="H1:H33 H45:H1048576">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G44">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",G34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H44">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",H1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("已完成",H34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -2323,36 +2469,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.109375" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="32.125" defaultRowHeight="22.5"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="32" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="51.44140625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="35" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" style="35" customWidth="1"/>
-    <col min="11" max="12" width="13.33203125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="32.109375" style="13"/>
+    <col min="1" max="1" width="7.75" style="26" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="60.75" style="39" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="26" customWidth="1"/>
+    <col min="7" max="7" width="9" style="26" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="44" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="44" customWidth="1"/>
+    <col min="11" max="12" width="13.375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="13.375" style="27" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="32.125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>129</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -2361,30 +2507,30 @@
       <c r="D1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30">
-      <c r="A2" s="28">
+    <row r="2" spans="1:10" ht="33">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2393,28 +2539,28 @@
       <c r="D2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="20">
+      <c r="G2" s="22"/>
+      <c r="H2" s="23">
         <v>43679</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="28">
+    <row r="3" spans="1:10">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -2423,28 +2569,28 @@
       <c r="D3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="20">
+      <c r="G3" s="22"/>
+      <c r="H3" s="23">
         <v>43679</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30">
-      <c r="A4" s="28">
+    <row r="4" spans="1:10" ht="33">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -2453,28 +2599,28 @@
       <c r="D4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="20">
+      <c r="G4" s="22"/>
+      <c r="H4" s="23">
         <v>43679</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="A5" s="28">
+    <row r="5" spans="1:10" ht="33">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -2483,28 +2629,28 @@
       <c r="D5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="20">
+      <c r="G5" s="22"/>
+      <c r="H5" s="23">
         <v>43679</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60">
-      <c r="A6" s="28">
+    <row r="6" spans="1:10" ht="66">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -2513,28 +2659,28 @@
       <c r="D6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="20">
+      <c r="G6" s="22"/>
+      <c r="H6" s="23">
         <v>43679</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105">
-      <c r="A7" s="28">
+    <row r="7" spans="1:10" ht="82.5">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -2543,28 +2689,28 @@
       <c r="D7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="20">
+      <c r="G7" s="22"/>
+      <c r="H7" s="23">
         <v>43679</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="75">
-      <c r="A8" s="28">
+    <row r="8" spans="1:10" ht="66">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2573,28 +2719,28 @@
       <c r="D8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="20">
+      <c r="G8" s="22"/>
+      <c r="H8" s="23">
         <v>43679</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
-      <c r="A9" s="28">
+    <row r="9" spans="1:10" ht="49.5">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -2603,28 +2749,28 @@
       <c r="D9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="20">
+      <c r="G9" s="22"/>
+      <c r="H9" s="23">
         <v>43679</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
-      <c r="A10" s="28">
+    <row r="10" spans="1:10" ht="33">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -2633,28 +2779,28 @@
       <c r="D10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="20">
+      <c r="G10" s="22"/>
+      <c r="H10" s="23">
         <v>43679</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="23">
         <v>43679</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="28">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -2663,28 +2809,28 @@
       <c r="D11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="20">
+      <c r="G11" s="22"/>
+      <c r="H11" s="23">
         <v>43679</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="23">
         <v>43679</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="28">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2693,28 +2839,28 @@
       <c r="D12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="20">
+      <c r="G12" s="22"/>
+      <c r="H12" s="23">
         <v>43679</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="23">
         <v>43679</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="28">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -2723,28 +2869,28 @@
       <c r="D13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="20">
+      <c r="G13" s="22"/>
+      <c r="H13" s="23">
         <v>43676</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="23">
         <v>43676</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30">
-      <c r="A14" s="28">
+    <row r="14" spans="1:10">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -2753,28 +2899,28 @@
       <c r="D14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="20">
+      <c r="G14" s="22"/>
+      <c r="H14" s="23">
         <v>43676</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="23">
         <v>43676</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="28">
+    <row r="15" spans="1:10">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -2783,28 +2929,28 @@
       <c r="D15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="20">
+      <c r="G15" s="22"/>
+      <c r="H15" s="23">
         <v>43676</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="23">
         <v>43676</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="28">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -2813,28 +2959,28 @@
       <c r="D16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="20">
+      <c r="G16" s="22"/>
+      <c r="H16" s="23">
         <v>43676</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="23">
         <v>43676</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60">
-      <c r="A17" s="28">
+    <row r="17" spans="1:10" ht="66">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -2843,28 +2989,28 @@
       <c r="D17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="20">
+      <c r="G17" s="22"/>
+      <c r="H17" s="23">
         <v>43676</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="23">
         <v>43676</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30">
-      <c r="A18" s="28">
+    <row r="18" spans="1:10" ht="33">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -2873,28 +3019,28 @@
       <c r="D18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="20">
+      <c r="G18" s="22"/>
+      <c r="H18" s="23">
         <v>43676</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="23">
         <v>43676</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="28">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -2903,28 +3049,28 @@
       <c r="D19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="20">
+      <c r="G19" s="22"/>
+      <c r="H19" s="23">
         <v>43676</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="23">
         <v>43676</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30">
-      <c r="A20" s="28">
+    <row r="20" spans="1:10" ht="33">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -2933,28 +3079,28 @@
       <c r="D20" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="20">
+      <c r="G20" s="22"/>
+      <c r="H20" s="23">
         <v>43676</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="23">
         <v>43676</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="28">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -2963,28 +3109,28 @@
       <c r="D21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="20">
+      <c r="G21" s="22"/>
+      <c r="H21" s="23">
         <v>43676</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="23">
         <v>43676</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30">
-      <c r="A22" s="28">
+    <row r="22" spans="1:10" ht="33">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -2993,28 +3139,28 @@
       <c r="D22" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="20">
+      <c r="G22" s="22"/>
+      <c r="H22" s="23">
         <v>43676</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="23">
         <v>43676</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30">
-      <c r="A23" s="28">
+    <row r="23" spans="1:10" ht="33">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -3023,28 +3169,28 @@
       <c r="D23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="20">
+      <c r="G23" s="22"/>
+      <c r="H23" s="23">
         <v>43676</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="23">
         <v>43676</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="28">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -3053,28 +3199,28 @@
       <c r="D24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="20">
+      <c r="G24" s="22"/>
+      <c r="H24" s="23">
         <v>43679</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="23">
         <v>43679</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="28">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -3083,28 +3229,28 @@
       <c r="D25" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="20">
+      <c r="G25" s="22"/>
+      <c r="H25" s="23">
         <v>43679</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="23">
         <v>43679</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="28">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -3113,28 +3259,28 @@
       <c r="D26" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="20">
+      <c r="G26" s="22"/>
+      <c r="H26" s="23">
         <v>43679</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="23">
         <v>43679</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="28">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -3143,28 +3289,28 @@
       <c r="D27" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="20">
+      <c r="G27" s="22"/>
+      <c r="H27" s="23">
         <v>43679</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="23">
         <v>43679</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="28">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -3173,28 +3319,28 @@
       <c r="D28" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="20">
+      <c r="G28" s="22"/>
+      <c r="H28" s="23">
         <v>43679</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="23">
         <v>43679</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="28">
+      <c r="A29" s="22">
         <v>28</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -3203,28 +3349,28 @@
       <c r="D29" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="20">
+      <c r="G29" s="22"/>
+      <c r="H29" s="23">
         <v>43679</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30">
-      <c r="A30" s="28">
+    <row r="30" spans="1:10" ht="33">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -3233,84 +3379,84 @@
       <c r="D30" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="20">
+      <c r="G30" s="22"/>
+      <c r="H30" s="23">
         <v>43679</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="23">
         <v>43679</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="31">
+      <c r="A31" s="25">
         <v>30</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="41">
+      <c r="G31" s="22"/>
+      <c r="H31" s="42">
         <v>43700</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="41"/>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="31">
+      <c r="A32" s="25">
         <v>31</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="41">
+      <c r="G32" s="22"/>
+      <c r="H32" s="42">
         <v>43700</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="1:10" ht="30">
-      <c r="A33" s="30">
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33" spans="1:10" ht="33">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="23" t="s">
         <v>114</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -3319,26 +3465,26 @@
       <c r="D33" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="21">
+      <c r="G33" s="22"/>
+      <c r="H33" s="43">
         <v>43700</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="21"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="30">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="23" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -3347,82 +3493,82 @@
       <c r="D34" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="21">
+      <c r="G34" s="22"/>
+      <c r="H34" s="43">
         <v>43700</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="1:10" ht="30">
-      <c r="A35" s="30">
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" ht="33">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>119</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="21">
+      <c r="G35" s="24"/>
+      <c r="H35" s="43">
         <v>43707</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="1:10" ht="30">
-      <c r="A36" s="30">
+      <c r="I35" s="24"/>
+      <c r="J35" s="43"/>
+    </row>
+    <row r="36" spans="1:10" ht="33">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>120</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="21">
+      <c r="G36" s="24"/>
+      <c r="H36" s="43">
         <v>43707</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="43">
         <v>43718</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="30">
-      <c r="A37" s="30">
+    <row r="37" spans="1:10" ht="33">
+      <c r="A37" s="24">
         <v>36</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -3431,260 +3577,276 @@
       <c r="D37" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="21">
+      <c r="G37" s="24"/>
+      <c r="H37" s="43">
         <v>43707</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="38" spans="1:10" ht="45">
-      <c r="A38" s="30">
+      <c r="I37" s="24"/>
+      <c r="J37" s="43"/>
+    </row>
+    <row r="38" spans="1:10" ht="49.5">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>161</v>
       </c>
       <c r="D38" s="15"/>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="21">
+      <c r="G38" s="24"/>
+      <c r="H38" s="43">
         <v>43707</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="39" spans="1:10" ht="45">
-      <c r="A39" s="30">
+      <c r="I38" s="24"/>
+      <c r="J38" s="43"/>
+    </row>
+    <row r="39" spans="1:10" ht="33">
+      <c r="A39" s="24">
         <v>38</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>121</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="21">
+      <c r="G39" s="24"/>
+      <c r="H39" s="43">
         <v>43707</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="43">
         <v>43720</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="30">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D40" s="15"/>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="21">
+      <c r="G40" s="24"/>
+      <c r="H40" s="43">
         <v>43707</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="43">
         <v>43720</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="30">
+      <c r="A41" s="24">
         <v>40</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="19" t="s">
+      <c r="G41" s="24"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="43">
         <v>43720</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="38"/>
+    <row r="42" spans="1:10" ht="33">
+      <c r="A42" s="24">
+        <v>41</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="43">
+        <v>43726</v>
+      </c>
+      <c r="I42" s="24"/>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="38"/>
+      <c r="A43" s="24">
+        <v>42</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="43">
+        <v>43726</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="38"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="38"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="38"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="38"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="38"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="43"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="38"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="43"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="38"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="38"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="38"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J41" xr:uid="{D6546F10-59A9-4C70-B541-03A6BCFDC60D}"/>

--- a/Doc/问题清单/融创设计协同办公平台事务表.xlsx
+++ b/Doc/问题清单/融创设计协同办公平台事务表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\问题清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F458B6-F2D3-4ADA-960C-9DBCBC9863DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B643F-700F-418F-9343-A7C7E39EED6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事务表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="173">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,34 +67,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标准立面：提供目前比较成熟的系列标准化的图纸。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准立面：负责进行图纸拆解和梳理，提供详细的搜索规则和属性定义。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填充：梳理填充的材质和分类方法，形成材质分类文档。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李默/常涵雅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空调：8月1日之前李默发给图源一套空调节点模块做研究。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防水：李默拆分一防水构造示例给图源，并手动绘制防水构造用户界面(8月5日)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防水：防水构造数据梳理，李默梳理出防水构造模块问题清单（8月5日），由涵雅负责收集各区域反馈。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵阳</t>
   </si>
   <si>
@@ -105,46 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空调：8月9日前李默提供面积和空调匹数的对照表。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外窗：8月9日前李默提供门窗表和门窗详图示例。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外窗：8月9日前赵阳负责与常涵雅确认项目上是否需要内开门。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外窗：8月9日前成本同事负责导出窗型、型材、材料和米重表给汪燕，8月13日前汪燕负责梳理44个门窗原型和SAP的对应关系。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外窗：8月9日前汪燕提交目前的算量表格给成本部门核对差别，成本部分提供集团统一的算量表格。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫：李默在原型界面基础上确认目前搜索界面是否有遗漏，是否符合设计师的操作习惯，形成文档反馈给图源做进一步修改。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨卫：李默负责梳理定型厨卫计算成本算量所需的属性界面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调：梳理集采库中空调图纸等，提供空调的编号规则。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调：梳理空调模块库建立的相关属性数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调：设计空调配置参数的手绘界面，到融创公司与图源进行系统讨论。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵阳负责和集采确认水盆、灶台的尺寸类型。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,18 +93,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外窗：8月20日前汪燕整理出外窗平面原型，转角窗的侧视图和展开图，给出编号规则。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防水：准备防水构造相关的基础材料和说明文档，构造编号原则。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汪燕/成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,30 +113,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空调：空调标准化文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门窗：提供成本门窗SAP材料表和名称给汪燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>栏杆：广深区域特殊栏杆样式，与广深区域确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门窗：提供两侧有转角窗的原型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门窗：门窗及门窗原型编号规则（同21/24）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>常涵雅</t>
   </si>
   <si>
@@ -221,11 +133,6 @@
   </si>
   <si>
     <t>内开内倒窗形式，推拉窗是要建立原型（汪燕补充对应的原型）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调：校验空调对于背部走冷凝管的情况空间是否足够；
-         冷凝管在空调后侧的情况的处理（李默负责核实）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -626,10 +533,6 @@
   </si>
   <si>
     <t>填充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号规则尚未给出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,6 +610,115 @@
   </si>
   <si>
     <t>内部账号区域人员是否能查看本区域的所有项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗算量表多个样式门窗时，除了汇总表，是否每个门窗都要出一个表sheet页？如果是则可能会sheet太多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供两侧有转角窗的原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗及门窗原型编号规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理集采库中空调图纸等，提供空调的编号规则。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理空调模块库建立的相关属性数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计空调配置参数的手绘界面，到融创公司与图源进行系统讨论。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月1日之前李默发给图源一套空调节点模块做研究。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月9日前李默提供面积和空调匹数的对照表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调标准化文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验空调对于背部走冷凝管的情况空间是否足够；
+冷凝管在空调后侧的情况的处理（李默负责核实）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广深区域特殊栏杆样式，与广深区域确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供目前比较成熟的系列标准化的图纸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责进行图纸拆解和梳理，提供详细的搜索规则和属性定义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月9日前李默提供门窗表和门窗详图示例。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月9日前赵阳负责与常涵雅确认项目上是否需要内开门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供成本门窗SAP材料表和名称给汪燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月20日前汪燕整理出外窗平面原型，转角窗的侧视图和展开图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月9日前成本同事负责导出窗型、型材、材料和米重表给汪燕，8月13日前汪燕负责梳理44个门窗原型和SAP的对应关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月9日前汪燕提交目前的算量表格给成本部门核对差别，成本部分提供集团统一的算量表格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理填充的材质和分类方法，形成材质分类文档。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水构造数据梳理，李默梳理出防水构造模块问题清单（8月5日），由涵雅负责收集各区域反馈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备防水构造相关的基础材料和说明文档，构造编号原则。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李默在原型界面基础上确认目前搜索界面是否有遗漏，是否符合设计师的操作习惯，形成文档反馈给图源做进一步修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李默负责梳理定型厨卫计算成本算量所需的属性界面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找赵阳要成本的物料表（上次给到汪燕的表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁学忠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1384,25 +1396,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10" style="37" customWidth="1"/>
-    <col min="3" max="3" width="70.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="28.875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="8.875" style="1"/>
-    <col min="12" max="12" width="8.875" style="20"/>
-    <col min="13" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="70.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="8.88671875" style="20"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1410,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -1425,13 +1437,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1">
@@ -1439,10 +1451,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>7</v>
@@ -1454,7 +1466,7 @@
         <v>43676</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>5</v>
@@ -1467,13 +1479,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" s="18">
         <v>43676</v>
@@ -1482,7 +1494,7 @@
         <v>43682</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>5</v>
@@ -1490,15 +1502,15 @@
       <c r="I3" s="32"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="33">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="31.2">
       <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>7</v>
@@ -1510,7 +1522,7 @@
         <v>43676</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>5</v>
@@ -1523,10 +1535,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>7</v>
@@ -1538,7 +1550,7 @@
         <v>43697</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>8</v>
@@ -1546,18 +1558,18 @@
       <c r="I5" s="5"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="33">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="31.2">
       <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="18">
         <v>43676</v>
@@ -1566,7 +1578,7 @@
         <v>43682</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>8</v>
@@ -1574,15 +1586,15 @@
       <c r="I6" s="5"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="31.2">
       <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>7</v>
@@ -1594,7 +1606,7 @@
         <v>43682</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>8</v>
@@ -1607,10 +1619,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>7</v>
@@ -1622,7 +1634,7 @@
         <v>43676</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>5</v>
@@ -1635,10 +1647,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>7</v>
@@ -1650,7 +1662,7 @@
         <v>43676</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>5</v>
@@ -1663,10 +1675,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>7</v>
@@ -1678,7 +1690,7 @@
         <v>43676</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>5</v>
@@ -1691,10 +1703,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>7</v>
@@ -1706,7 +1718,7 @@
         <v>43678</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>5</v>
@@ -1719,10 +1731,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>7</v>
@@ -1734,10 +1746,10 @@
         <v>43686</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I12" s="32"/>
       <c r="L12" s="20"/>
@@ -1747,20 +1759,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E13" s="36">
         <v>43700</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>5</v>
@@ -1768,15 +1780,15 @@
       <c r="I13" s="32"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="33">
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="31.2">
       <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>7</v>
@@ -1786,7 +1798,7 @@
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>5</v>
@@ -1799,20 +1811,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E15" s="36">
         <v>43700</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>8</v>
@@ -1825,10 +1837,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>9</v>
@@ -1840,7 +1852,7 @@
         <v>43697</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>8</v>
@@ -1853,10 +1865,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>7</v>
@@ -1868,7 +1880,7 @@
         <v>43697</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>8</v>
@@ -1881,10 +1893,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>7</v>
@@ -1896,10 +1908,10 @@
         <v>43686</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I18" s="32"/>
       <c r="L18" s="20"/>
@@ -1909,13 +1921,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E19" s="18">
         <v>43684</v>
@@ -1924,7 +1936,7 @@
         <v>43686</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>5</v>
@@ -1937,20 +1949,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E20" s="36">
         <v>43700</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>5</v>
@@ -1963,13 +1975,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E21" s="18">
         <v>43679</v>
@@ -1978,26 +1990,26 @@
         <v>43684</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="I21" s="34"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="31.2">
       <c r="A22" s="31">
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E22" s="18">
         <v>43679</v>
@@ -2006,26 +2018,26 @@
         <v>43708</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="I22" s="34"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="1:12" ht="33">
+    <row r="23" spans="1:12">
       <c r="A23" s="31">
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23" s="18">
         <v>43683</v>
@@ -2034,27 +2046,25 @@
         <v>43697</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="33">
+        <v>120</v>
+      </c>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:12" ht="31.2">
       <c r="A24" s="31">
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E24" s="18">
         <v>43684</v>
@@ -2063,25 +2073,25 @@
         <v>43686</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:12" ht="33">
+    <row r="25" spans="1:12" ht="31.2">
       <c r="A25" s="31">
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E25" s="18">
         <v>43684</v>
@@ -2090,38 +2100,38 @@
         <v>43686</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:12" ht="49.5">
+    <row r="26" spans="1:12" ht="46.8">
       <c r="A26" s="31">
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E26" s="36">
         <v>43700</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2129,20 +2139,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E27" s="36">
         <v>43700</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>8</v>
@@ -2154,20 +2164,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>43</v>
-      </c>
       <c r="D28" s="12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E28" s="36">
         <v>43700</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>8</v>
@@ -2179,20 +2189,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E29" s="36">
         <v>43705</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="11" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>8</v>
@@ -2204,20 +2214,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E30" s="36">
         <v>43705</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="18" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>8</v>
@@ -2229,13 +2239,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E31" s="36">
         <v>43705</v>
@@ -2244,7 +2254,7 @@
         <v>43707</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>8</v>
@@ -2256,20 +2266,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E32" s="36">
         <v>43705</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="18" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>8</v>
@@ -2281,10 +2291,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>7</v>
@@ -2296,7 +2306,7 @@
         <v>43697</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>8</v>
@@ -2304,14 +2314,28 @@
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="31"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="18"/>
+      <c r="A34" s="31">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="18">
+        <v>43726</v>
+      </c>
       <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="G34" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9">
@@ -2439,7 +2463,7 @@
       <formula>NOT(ISERROR(SEARCH("高",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H33 H45:H1048576">
+  <conditionalFormatting sqref="H45:H1048576 H1:H34">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",H1)))</formula>
     </cfRule>
@@ -2449,9 +2473,9 @@
       <formula>NOT(ISERROR(SEARCH("高",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H44">
+  <conditionalFormatting sqref="H35:H44">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",H34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("已完成",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -2471,27 +2495,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:A43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.125" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="32.109375" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="26" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="60.75" style="39" customWidth="1"/>
-    <col min="4" max="4" width="51.5" style="28" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="26" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="51.44140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="26" customWidth="1"/>
     <col min="7" max="7" width="9" style="26" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="44" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="44" customWidth="1"/>
-    <col min="11" max="12" width="13.375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="27" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="32.125" style="13"/>
+    <col min="8" max="8" width="12.44140625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="44" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="32.109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2499,298 +2523,298 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30">
       <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="23">
         <v>43679</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J2" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="30">
       <c r="A3" s="22">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="23">
         <v>43679</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J3" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="22">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="23">
         <v>43679</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J4" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33">
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="22">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="23">
         <v>43679</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J5" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="66">
+    <row r="6" spans="1:10" ht="60">
       <c r="A6" s="22">
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="23">
         <v>43679</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J6" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="82.5">
+    <row r="7" spans="1:10" ht="105">
       <c r="A7" s="22">
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23">
         <v>43679</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J7" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="66">
+    <row r="8" spans="1:10" ht="75">
       <c r="A8" s="22">
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="23">
         <v>43679</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J8" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="49.5">
+    <row r="9" spans="1:10" ht="45">
       <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="23">
         <v>43679</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J9" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="33">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="22">
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="23">
         <v>43679</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J10" s="23">
         <v>43679</v>
@@ -2801,26 +2825,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="23">
         <v>43679</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="J11" s="23">
         <v>43679</v>
@@ -2831,26 +2855,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23">
         <v>43679</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="J12" s="23">
         <v>43679</v>
@@ -2861,19 +2885,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="23">
@@ -2886,24 +2910,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14" s="22">
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="23">
@@ -2916,24 +2940,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="22">
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="23">
@@ -2951,19 +2975,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="23">
@@ -2976,24 +3000,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="66">
+    <row r="17" spans="1:10" ht="75">
       <c r="A17" s="22">
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="23">
@@ -3006,24 +3030,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="33">
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="22">
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="23">
@@ -3041,19 +3065,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="23">
@@ -3066,24 +3090,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="33">
+    <row r="20" spans="1:10" ht="30">
       <c r="A20" s="22">
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="23">
@@ -3101,19 +3125,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="23">
@@ -3126,24 +3150,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="33">
+    <row r="22" spans="1:10" ht="30">
       <c r="A22" s="22">
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="23">
@@ -3156,24 +3180,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="33">
+    <row r="23" spans="1:10" ht="30">
       <c r="A23" s="22">
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="23">
@@ -3191,26 +3215,26 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="D24" s="15" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="23">
         <v>43679</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J24" s="23">
         <v>43679</v>
@@ -3221,26 +3245,26 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="23">
         <v>43679</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J25" s="23">
         <v>43679</v>
@@ -3251,26 +3275,26 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="23">
         <v>43679</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J26" s="23">
         <v>43679</v>
@@ -3281,26 +3305,26 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="23">
         <v>43679</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J27" s="23">
         <v>43679</v>
@@ -3311,26 +3335,26 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="23">
         <v>43679</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J28" s="23">
         <v>43679</v>
@@ -3341,56 +3365,56 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23">
         <v>43679</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J29" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="33">
+    <row r="30" spans="1:10" ht="30">
       <c r="A30" s="22">
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="23">
         <v>43679</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J30" s="23">
         <v>43679</v>
@@ -3401,26 +3425,26 @@
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="42">
         <v>43700</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J31" s="42"/>
     </row>
@@ -3429,47 +3453,47 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="42">
         <v>43700</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J32" s="42"/>
     </row>
-    <row r="33" spans="1:10" ht="33">
+    <row r="33" spans="1:10" ht="30">
       <c r="A33" s="24">
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>138</v>
-      </c>
       <c r="F33" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="43">
@@ -3485,19 +3509,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="43">
@@ -3508,24 +3532,24 @@
       </c>
       <c r="J34" s="43"/>
     </row>
-    <row r="35" spans="1:10" ht="33">
+    <row r="35" spans="1:10" ht="30">
       <c r="A35" s="24">
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="43">
@@ -3534,54 +3558,54 @@
       <c r="I35" s="24"/>
       <c r="J35" s="43"/>
     </row>
-    <row r="36" spans="1:10" ht="33">
+    <row r="36" spans="1:10" ht="30">
       <c r="A36" s="24">
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G36" s="24"/>
       <c r="H36" s="43">
         <v>43707</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="J36" s="43">
         <v>43718</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="33">
+    <row r="37" spans="1:10" ht="30">
       <c r="A37" s="24">
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="43">
@@ -3590,22 +3614,22 @@
       <c r="I37" s="24"/>
       <c r="J37" s="43"/>
     </row>
-    <row r="38" spans="1:10" ht="49.5">
+    <row r="38" spans="1:10" ht="45">
       <c r="A38" s="24">
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="43">
@@ -3614,31 +3638,31 @@
       <c r="I38" s="24"/>
       <c r="J38" s="43"/>
     </row>
-    <row r="39" spans="1:10" ht="33">
+    <row r="39" spans="1:10" ht="45">
       <c r="A39" s="24">
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="43">
         <v>43707</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="J39" s="43">
         <v>43720</v>
@@ -3649,24 +3673,24 @@
         <v>39</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G40" s="24"/>
       <c r="H40" s="43">
         <v>43707</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="J40" s="43">
         <v>43720</v>
@@ -3677,48 +3701,48 @@
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="43"/>
       <c r="I41" s="24" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="J41" s="43">
         <v>43720</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="33">
+    <row r="42" spans="1:10" ht="30">
       <c r="A42" s="24">
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="24" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="H42" s="43">
         <v>43726</v>
@@ -3731,20 +3755,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="24" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="H43" s="43">
         <v>43726</v>
@@ -3752,15 +3776,29 @@
       <c r="I43" s="24"/>
       <c r="J43" s="43"/>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="15"/>
+    <row r="44" spans="1:10" ht="30">
+      <c r="A44" s="24">
+        <v>43</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>147</v>
+      </c>
       <c r="D44" s="29"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="43"/>
+      <c r="E44" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="43">
+        <v>43726</v>
+      </c>
       <c r="I44" s="24"/>
       <c r="J44" s="43"/>
     </row>

--- a/Doc/问题清单/融创设计协同办公平台事务表.xlsx
+++ b/Doc/问题清单/融创设计协同办公平台事务表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\问题清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B643F-700F-418F-9343-A7C7E39EED6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8F3C24-DB21-4A25-A621-0C3823E5CA88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事务表" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,21 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">事务表!$A$1:$H$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">问题表!$A$1:$J$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">问题表!$A$1:$J$53</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="182">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,14 +124,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常涵雅</t>
-  </si>
-  <si>
     <t>核实成本算量的四个步骤，建筑设计院能否填写型材、型材、玻璃选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核实结构计算（中挺）需要哪些基础信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 栏杆直接拉伸会有一点走形  和涵雅问一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,9 +495,6 @@
   </si>
   <si>
     <t>已完成</t>
-  </si>
-  <si>
-    <t>待完成</t>
   </si>
   <si>
     <t>模块</t>
@@ -686,10 +679,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8月9日前成本同事负责导出窗型、型材、材料和米重表给汪燕，8月13日前汪燕负责梳理44个门窗原型和SAP的对应关系。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8月9日前汪燕提交目前的算量表格给成本部门核对差别，成本部分提供集团统一的算量表格。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,7 +707,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>袁学忠</t>
+    <t>8月9日前成本同事负责导出窗型、型材、材料和米重表给汪燕，
+8月13日前汪燕负责梳理44个门窗原型和SAP的对应关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标准高度栏杆是直接拉伸还是高度方向拆分拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次深化设计中型材系列和玻璃选型的选项有哪些，对应的型材数据什么时候能提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞缝尺寸选项和附框选型的选项也请提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节能系数是填写还是选择？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深化设计型材选择是建筑院做还是顾问做，设置完了才能算量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋浴房要不要统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>马桶750空间和800空间两种的马桶是否相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩德福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定中梃校验的方式，核实结构计算需要哪些基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪燕/常涵雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间有好几个灰色隐形窗是什么意思，是否是多个门窗位置关系都可以？若是此情况能否不选择门窗位置直接筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗表格式确定用哪种？是否是用李默提供的那个模板样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,6 +860,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -865,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,12 +1052,69 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1071,6 +1180,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>458954</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>389769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3417307</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>22621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36F0B69-815A-4B54-9F24-40CA5C751C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1643367" y="4357139"/>
+          <a:ext cx="2958353" cy="3177808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,33 +1554,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33:H34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="10" style="37" customWidth="1"/>
-    <col min="3" max="3" width="70.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="8.88671875" style="20"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="70.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.875" style="1"/>
+    <col min="12" max="12" width="8.875" style="20"/>
+    <col min="13" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
@@ -1437,24 +1595,24 @@
         <v>1</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>7</v>
@@ -1466,7 +1624,7 @@
         <v>43676</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>5</v>
@@ -1474,12 +1632,12 @@
       <c r="I2" s="32"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>15</v>
@@ -1494,7 +1652,7 @@
         <v>43682</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>5</v>
@@ -1502,15 +1660,15 @@
       <c r="I3" s="32"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="31.2">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>7</v>
@@ -1522,7 +1680,7 @@
         <v>43676</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>5</v>
@@ -1530,15 +1688,15 @@
       <c r="I4" s="32"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>7</v>
@@ -1550,7 +1708,7 @@
         <v>43697</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>8</v>
@@ -1558,15 +1716,15 @@
       <c r="I5" s="5"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="31.2">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
@@ -1578,7 +1736,7 @@
         <v>43682</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>8</v>
@@ -1586,12 +1744,12 @@
       <c r="I6" s="5"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="31.2">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>11</v>
@@ -1606,7 +1764,7 @@
         <v>43682</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>8</v>
@@ -1614,15 +1772,15 @@
       <c r="I7" s="5"/>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>7</v>
@@ -1634,7 +1792,7 @@
         <v>43676</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>5</v>
@@ -1642,15 +1800,15 @@
       <c r="I8" s="32"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>7</v>
@@ -1662,7 +1820,7 @@
         <v>43676</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>5</v>
@@ -1670,15 +1828,15 @@
       <c r="I9" s="32"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>7</v>
@@ -1690,7 +1848,7 @@
         <v>43676</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>5</v>
@@ -1698,15 +1856,15 @@
       <c r="I10" s="32"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>7</v>
@@ -1718,7 +1876,7 @@
         <v>43678</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>5</v>
@@ -1726,15 +1884,15 @@
       <c r="I11" s="32"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>7</v>
@@ -1746,7 +1904,7 @@
         <v>43686</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>19</v>
@@ -1754,15 +1912,15 @@
       <c r="I12" s="32"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>21</v>
@@ -1772,7 +1930,7 @@
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>5</v>
@@ -1780,15 +1938,15 @@
       <c r="I13" s="32"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="31.2">
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>7</v>
@@ -1798,7 +1956,7 @@
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>5</v>
@@ -1806,15 +1964,15 @@
       <c r="I14" s="32"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1">
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31">
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>22</v>
@@ -1824,7 +1982,7 @@
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>8</v>
@@ -1832,15 +1990,15 @@
       <c r="I15" s="34"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1">
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>9</v>
@@ -1852,7 +2010,7 @@
         <v>43697</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>8</v>
@@ -1860,15 +2018,15 @@
       <c r="I16" s="5"/>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1">
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31">
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>7</v>
@@ -1880,7 +2038,7 @@
         <v>43697</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>8</v>
@@ -1888,15 +2046,15 @@
       <c r="I17" s="5"/>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1">
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31">
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>7</v>
@@ -1908,7 +2066,7 @@
         <v>43686</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>19</v>
@@ -1916,15 +2074,15 @@
       <c r="I18" s="32"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1">
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31">
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>12</v>
@@ -1936,7 +2094,7 @@
         <v>43686</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>5</v>
@@ -1944,15 +2102,15 @@
       <c r="I19" s="32"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1">
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31">
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>22</v>
@@ -1962,7 +2120,7 @@
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>5</v>
@@ -1970,12 +2128,12 @@
       <c r="I20" s="32"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1">
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>16</v>
@@ -1990,20 +2148,20 @@
         <v>43684</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I21" s="34"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="31.2">
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31">
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>14</v>
@@ -2018,23 +2176,23 @@
         <v>43708</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I22" s="34"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="31">
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>13</v>
@@ -2046,22 +2204,22 @@
         <v>43697</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="1:12" ht="31.2">
+    <row r="24" spans="1:12" ht="33" x14ac:dyDescent="0.15">
       <c r="A24" s="31">
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>13</v>
@@ -2073,22 +2231,22 @@
         <v>43686</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="1:12" ht="31.2">
+    <row r="25" spans="1:12" ht="33" x14ac:dyDescent="0.15">
       <c r="A25" s="31">
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>18</v>
@@ -2100,22 +2258,22 @@
         <v>43686</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:12" ht="46.8">
+    <row r="26" spans="1:12" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A26" s="31">
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>20</v>
@@ -2125,24 +2283,24 @@
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="31">
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>149</v>
+        <v>121</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>145</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>20</v>
@@ -2152,22 +2310,22 @@
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="31">
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>144</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>20</v>
@@ -2177,22 +2335,22 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="31">
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>20</v>
@@ -2202,22 +2360,22 @@
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="31">
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>20</v>
@@ -2227,25 +2385,25 @@
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="I30" s="34"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="31">
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>25</v>
+        <v>121</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>178</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E31" s="36">
         <v>43705</v>
@@ -2254,47 +2412,47 @@
         <v>43707</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I31" s="34"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="31">
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>24</v>
+        <v>121</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>23</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="E32" s="36">
         <v>43705</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="34"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="31">
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>7</v>
@@ -2306,39 +2464,25 @@
         <v>43697</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="31">
-        <v>33</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="18">
-        <v>43726</v>
-      </c>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="31"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="31"/>
       <c r="B35" s="18"/>
       <c r="C35" s="34"/>
@@ -2349,7 +2493,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="31"/>
       <c r="B36" s="18"/>
       <c r="C36" s="34"/>
@@ -2360,7 +2504,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="31"/>
       <c r="B37" s="18"/>
       <c r="C37" s="34"/>
@@ -2371,7 +2515,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="31"/>
       <c r="B38" s="18"/>
       <c r="C38" s="34"/>
@@ -2382,7 +2526,7 @@
       <c r="H38" s="19"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="31"/>
       <c r="B39" s="18"/>
       <c r="C39" s="34"/>
@@ -2393,7 +2537,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="31"/>
       <c r="B40" s="18"/>
       <c r="C40" s="34"/>
@@ -2404,7 +2548,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="31"/>
       <c r="B41" s="18"/>
       <c r="C41" s="34"/>
@@ -2415,7 +2559,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="31"/>
       <c r="B42" s="18"/>
       <c r="C42" s="34"/>
@@ -2426,7 +2570,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="31"/>
       <c r="B43" s="18"/>
       <c r="C43" s="34"/>
@@ -2437,7 +2581,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="31"/>
       <c r="B44" s="18"/>
       <c r="C44" s="34"/>
@@ -2459,22 +2603,22 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G33 G45:G1048576">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H1048576 H1:H34">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G44">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H44">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2493,81 +2637,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M51"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.109375" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="32.125" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="51.44140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="47" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="60.75" style="39" customWidth="1"/>
+    <col min="4" max="4" width="51.5" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="26" customWidth="1"/>
     <col min="7" max="7" width="9" style="26" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" style="44" customWidth="1"/>
-    <col min="11" max="12" width="13.33203125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="27" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="32.109375" style="13"/>
+    <col min="8" max="8" width="12.5" style="44" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="44" customWidth="1"/>
+    <col min="11" max="12" width="13.375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="13.375" style="27" customWidth="1"/>
+    <col min="14" max="14" width="13.375" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="32.125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="23">
@@ -2580,24 +2725,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="23">
@@ -2610,24 +2755,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="23">
@@ -2640,24 +2785,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="23">
@@ -2670,24 +2815,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="60">
+    <row r="6" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="23">
@@ -2700,24 +2845,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105">
+    <row r="7" spans="1:10" ht="82.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23">
@@ -2730,24 +2875,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="75">
+    <row r="8" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="23">
@@ -2760,24 +2905,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="23">
@@ -2790,24 +2935,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="23">
@@ -2820,84 +2965,84 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="23">
         <v>43679</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23">
         <v>43679</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J12" s="23">
         <v>43679</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="23">
@@ -2910,24 +3055,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="23">
@@ -2940,24 +3085,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="23">
@@ -2970,24 +3115,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="23">
@@ -3000,24 +3145,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="75">
+    <row r="17" spans="1:10" ht="66" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="23">
@@ -3030,24 +3175,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="23">
@@ -3060,24 +3205,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="23">
@@ -3090,24 +3235,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30">
+    <row r="20" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="23">
@@ -3120,24 +3265,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="23">
@@ -3150,24 +3295,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30">
+    <row r="22" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="23">
@@ -3180,24 +3325,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30">
+    <row r="23" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="23">
@@ -3210,24 +3355,24 @@
         <v>43676</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="23">
@@ -3240,24 +3385,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>77</v>
-      </c>
       <c r="E25" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="23">
@@ -3270,24 +3415,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22">
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="23">
@@ -3300,24 +3445,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22">
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="23">
@@ -3330,24 +3475,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22">
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="23">
@@ -3360,24 +3505,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22">
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="23">
@@ -3390,24 +3535,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30">
+    <row r="30" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22">
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="23">
@@ -3420,24 +3565,24 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="42">
@@ -3448,24 +3593,24 @@
       </c>
       <c r="J31" s="42"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="42">
@@ -3476,24 +3621,24 @@
       </c>
       <c r="J32" s="42"/>
     </row>
-    <row r="33" spans="1:10" ht="30">
+    <row r="33" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="E33" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="43">
@@ -3504,24 +3649,24 @@
       </c>
       <c r="J33" s="43"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="24">
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="43">
@@ -3532,24 +3677,24 @@
       </c>
       <c r="J34" s="43"/>
     </row>
-    <row r="35" spans="1:10" ht="30">
+    <row r="35" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="43">
@@ -3558,54 +3703,54 @@
       <c r="I35" s="24"/>
       <c r="J35" s="43"/>
     </row>
-    <row r="36" spans="1:10" ht="30">
+    <row r="36" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G36" s="24"/>
       <c r="H36" s="43">
         <v>43707</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J36" s="43">
         <v>43718</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="30">
-      <c r="A37" s="24">
+    <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A37" s="46">
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="43">
@@ -3614,22 +3759,22 @@
       <c r="I37" s="24"/>
       <c r="J37" s="43"/>
     </row>
-    <row r="38" spans="1:10" ht="45">
-      <c r="A38" s="24">
+    <row r="38" spans="1:10" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="46">
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="43">
@@ -3638,111 +3783,111 @@
       <c r="I38" s="24"/>
       <c r="J38" s="43"/>
     </row>
-    <row r="39" spans="1:10" ht="45">
+    <row r="39" spans="1:10" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="43">
         <v>43707</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J39" s="43">
         <v>43720</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="24">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="46">
         <v>39</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G40" s="24"/>
       <c r="H40" s="43">
         <v>43707</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J40" s="43">
         <v>43720</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="43"/>
       <c r="I41" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J41" s="43">
         <v>43720</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30">
-      <c r="A42" s="24">
+    <row r="42" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A42" s="46">
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H42" s="43">
         <v>43726</v>
@@ -3750,51 +3895,51 @@
       <c r="I42" s="24"/>
       <c r="J42" s="43"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="24">
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H43" s="43">
-        <v>43726</v>
+        <v>43727</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="43"/>
     </row>
-    <row r="44" spans="1:10" ht="30">
-      <c r="A44" s="24">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="46">
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H44" s="43">
         <v>43726</v>
@@ -3802,104 +3947,310 @@
       <c r="I44" s="24"/>
       <c r="J44" s="43"/>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="15"/>
+    <row r="45" spans="1:10" ht="33" x14ac:dyDescent="0.15">
+      <c r="A45" s="24">
+        <v>44</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="D45" s="29"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="43"/>
+      <c r="E45" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="43">
+        <v>43726</v>
+      </c>
       <c r="I45" s="24"/>
       <c r="J45" s="43"/>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="15"/>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>166</v>
+      </c>
       <c r="D46" s="29"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="43"/>
+      <c r="E46" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="43">
+        <v>43727</v>
+      </c>
       <c r="I46" s="24"/>
       <c r="J46" s="43"/>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="15"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="24">
+        <v>46</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="D47" s="29"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="43"/>
+      <c r="E47" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" s="43">
+        <v>43727</v>
+      </c>
       <c r="I47" s="24"/>
       <c r="J47" s="43"/>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="15"/>
+    <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="46">
+        <v>47</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>169</v>
+      </c>
       <c r="D48" s="29"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="43"/>
+      <c r="E48" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="43">
+        <v>43727</v>
+      </c>
       <c r="I48" s="24"/>
       <c r="J48" s="43"/>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="15"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="24">
+        <v>48</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="D49" s="29"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="43"/>
+      <c r="E49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" s="43">
+        <v>43727</v>
+      </c>
       <c r="I49" s="24"/>
       <c r="J49" s="43"/>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="15"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="46">
+        <v>49</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="D50" s="29"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="43"/>
+      <c r="E50" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" s="43">
+        <v>43727</v>
+      </c>
       <c r="I50" s="24"/>
       <c r="J50" s="43"/>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="15"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="24">
+        <v>50</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>173</v>
+      </c>
       <c r="D51" s="29"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="43"/>
+      <c r="E51" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="43">
+        <v>43727</v>
+      </c>
       <c r="I51" s="24"/>
       <c r="J51" s="43"/>
     </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="46">
+        <v>51</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" s="43">
+        <v>43727</v>
+      </c>
+      <c r="I52" s="24"/>
+      <c r="J52" s="43"/>
+    </row>
+    <row r="53" spans="1:10" ht="279" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="46">
+        <v>52</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="43">
+        <v>43727</v>
+      </c>
+      <c r="I53" s="24"/>
+      <c r="J53" s="43"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="46"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="43"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="46"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="43"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J41" xr:uid="{D6546F10-59A9-4C70-B541-03A6BCFDC60D}"/>
+  <autoFilter ref="A1:J53" xr:uid="{132B8200-6D2B-497B-90DF-B0DC58C1B548}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="未解决"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="未解决">
+  <conditionalFormatting sqref="F56:F1048576 F1:F50">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="未解决">
       <formula>NOT(ISERROR(SEARCH("未解决",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="已解决">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="已解决">
       <formula>NOT(ISERROR(SEARCH("已解决",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E56:E1048576 E1:E50">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54:F55">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="未解决">
+      <formula>NOT(ISERROR(SEARCH("未解决",F54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="已解决">
+      <formula>NOT(ISERROR(SEARCH("已解决",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E55">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",E54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:F53">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="未解决">
+      <formula>NOT(ISERROR(SEARCH("未解决",F51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="已解决">
+      <formula>NOT(ISERROR(SEARCH("已解决",F51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E53">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",E1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("高",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3912,5 +4263,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/问题清单/融创设计协同办公平台事务表.xlsx
+++ b/Doc/问题清单/融创设计协同办公平台事务表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Doc\问题清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8F3C24-DB21-4A25-A621-0C3823E5CA88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFD74F8-7D12-46B6-B1FA-E2CAA5A03B8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="184">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -594,10 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绿城都建筑设计院中提出门窗外立面的结构线、完成线，浙江工业设计院提出的抹灰层在外窗的显示是否要考虑和更改外窗原型图？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>袁学忠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,6 +760,18 @@
   </si>
   <si>
     <t>门窗表格式确定用哪种？是否是用李默提供的那个模板样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿城都建筑设计院中提出门窗外立面的结构线、完成线（看线），浙江工业设计院提出的抹灰层在外窗的显示是否要考虑和更改外窗原型图？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周二左右能给到，统计项目上的节能系数对应的区域的型材系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏杆拆分逻辑7个玻璃、7铁艺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +782,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +875,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -917,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,12 +1082,32 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1189,13 +1224,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>458954</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>389769</xdr:rowOff>
+      <xdr:rowOff>398052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3417307</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>22621</xdr:rowOff>
+      <xdr:rowOff>30904</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1218,7 +1253,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1643367" y="4357139"/>
+          <a:off x="1643367" y="4655313"/>
           <a:ext cx="2958353" cy="3177808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1552,11 +1587,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31:C32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
@@ -1604,7 +1640,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -1612,7 +1648,7 @@
         <v>119</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>7</v>
@@ -1632,7 +1668,7 @@
       <c r="I2" s="32"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -1660,7 +1696,7 @@
       <c r="I3" s="32"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -1668,7 +1704,7 @@
         <v>119</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>7</v>
@@ -1696,7 +1732,7 @@
         <v>123</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>7</v>
@@ -1724,7 +1760,7 @@
         <v>123</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>10</v>
@@ -1772,7 +1808,7 @@
       <c r="I7" s="5"/>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -1780,7 +1816,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>7</v>
@@ -1800,7 +1836,7 @@
       <c r="I8" s="32"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -1808,7 +1844,7 @@
         <v>120</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>7</v>
@@ -1828,7 +1864,7 @@
       <c r="I9" s="32"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31">
         <v>9</v>
       </c>
@@ -1836,7 +1872,7 @@
         <v>120</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>7</v>
@@ -1856,7 +1892,7 @@
       <c r="I10" s="32"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -1864,7 +1900,7 @@
         <v>120</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>7</v>
@@ -1884,7 +1920,7 @@
       <c r="I11" s="32"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -1892,7 +1928,7 @@
         <v>120</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>7</v>
@@ -1912,7 +1948,7 @@
       <c r="I12" s="32"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -1920,7 +1956,7 @@
         <v>120</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>21</v>
@@ -1938,7 +1974,7 @@
       <c r="I13" s="32"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31">
         <v>13</v>
       </c>
@@ -1946,7 +1982,7 @@
         <v>120</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>7</v>
@@ -1972,7 +2008,7 @@
         <v>122</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>22</v>
@@ -1998,7 +2034,7 @@
         <v>124</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>9</v>
@@ -2026,7 +2062,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>7</v>
@@ -2046,7 +2082,7 @@
       <c r="I17" s="5"/>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31">
         <v>17</v>
       </c>
@@ -2054,7 +2090,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>7</v>
@@ -2074,7 +2110,7 @@
       <c r="I18" s="32"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31">
         <v>18</v>
       </c>
@@ -2082,7 +2118,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>12</v>
@@ -2102,7 +2138,7 @@
       <c r="I19" s="32"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31">
         <v>19</v>
       </c>
@@ -2110,7 +2146,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>22</v>
@@ -2128,7 +2164,7 @@
       <c r="I20" s="32"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -2156,7 +2192,7 @@
       <c r="I21" s="34"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31">
         <v>21</v>
       </c>
@@ -2184,7 +2220,7 @@
       <c r="I22" s="34"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31">
         <v>22</v>
       </c>
@@ -2192,7 +2228,7 @@
         <v>121</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>13</v>
@@ -2219,7 +2255,7 @@
         <v>121</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>13</v>
@@ -2246,7 +2282,7 @@
         <v>121</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>18</v>
@@ -2265,7 +2301,7 @@
       </c>
       <c r="I25" s="34"/>
     </row>
-    <row r="26" spans="1:12" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="49.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31">
         <v>25</v>
       </c>
@@ -2300,7 +2336,7 @@
         <v>121</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>20</v>
@@ -2325,7 +2361,7 @@
         <v>121</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>20</v>
@@ -2342,7 +2378,7 @@
       </c>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31">
         <v>28</v>
       </c>
@@ -2367,7 +2403,7 @@
       </c>
       <c r="I29" s="34"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31">
         <v>29</v>
       </c>
@@ -2400,10 +2436,10 @@
         <v>121</v>
       </c>
       <c r="C31" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="E31" s="36">
         <v>43705</v>
@@ -2430,7 +2466,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="36">
         <v>43705</v>
@@ -2452,7 +2488,7 @@
         <v>125</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>7</v>
@@ -2474,12 +2510,22 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="31"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="F34" s="18">
+        <v>43738</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2594,6 +2640,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H33" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="待完成"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:H33">
       <sortCondition ref="H1"/>
     </sortState>
@@ -2603,23 +2654,33 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G33 G45:G1048576">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H1048576 H1:H34">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="已完成">
+  <conditionalFormatting sqref="H45:H1048576 H1:H33">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:G44">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="高">
+  <conditionalFormatting sqref="G35:G44">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",G35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H44">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",H35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H44">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",H35)))</formula>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",H34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -2641,8 +2702,8 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.125" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
@@ -3774,7 +3835,7 @@
         <v>112</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="43">
@@ -3820,8 +3881,8 @@
       <c r="B40" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>168</v>
+      <c r="C40" s="51" t="s">
+        <v>167</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="22" t="s">
@@ -3876,8 +3937,8 @@
       <c r="B42" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>139</v>
+      <c r="C42" s="50" t="s">
+        <v>181</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="24" t="s">
@@ -3887,7 +3948,7 @@
         <v>116</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H42" s="43">
         <v>43726</v>
@@ -3902,8 +3963,8 @@
       <c r="B43" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>181</v>
+      <c r="C43" s="50" t="s">
+        <v>180</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="24" t="s">
@@ -3928,8 +3989,8 @@
       <c r="B44" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>141</v>
+      <c r="C44" s="50" t="s">
+        <v>140</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="24" t="s">
@@ -3952,10 +4013,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="24" t="s">
@@ -3981,7 +4042,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="24" t="s">
@@ -4007,7 +4068,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="24" t="s">
@@ -4033,9 +4094,11 @@
         <v>30</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>182</v>
+      </c>
       <c r="E48" s="24" t="s">
         <v>111</v>
       </c>
@@ -4059,7 +4122,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="24" t="s">
@@ -4084,8 +4147,8 @@
       <c r="B50" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>172</v>
+      <c r="C50" s="50" t="s">
+        <v>171</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="24" t="s">
@@ -4108,10 +4171,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="24" t="s">
@@ -4121,7 +4184,7 @@
         <v>116</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H51" s="43">
         <v>43727</v>
@@ -4134,10 +4197,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="24" t="s">
@@ -4147,7 +4210,7 @@
         <v>116</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H52" s="43">
         <v>43727</v>
@@ -4160,10 +4223,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="24" t="s">
@@ -4173,7 +4236,7 @@
         <v>116</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H53" s="43">
         <v>43727</v>
@@ -4215,41 +4278,41 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F56:F1048576 F1:F50">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="未解决">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="未解决">
       <formula>NOT(ISERROR(SEARCH("未解决",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="已解决">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="已解决">
       <formula>NOT(ISERROR(SEARCH("已解决",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E1048576 E1:E50">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F55">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="未解决">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="未解决">
       <formula>NOT(ISERROR(SEARCH("未解决",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="已解决">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="已解决">
       <formula>NOT(ISERROR(SEARCH("已解决",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E55">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F53">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="未解决">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="未解决">
       <formula>NOT(ISERROR(SEARCH("未解决",F51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="已解决">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="已解决">
       <formula>NOT(ISERROR(SEARCH("已解决",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E53">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
